--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -40,21 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -64,12 +64,12 @@
     <t>fears</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -97,73 +97,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8378378378378378</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
         <v>31</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8082191780821918</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8297872340425532</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +914,13 @@
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8203125</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L9">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +964,13 @@
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5193798449612403</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C11">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4899328859060403</v>
+        <v>0.5174418604651163</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3866666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2619047619047619</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8018867924528302</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1635388739946381</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
@@ -1240,37 +1240,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.009339774557165861</v>
+        <v>0.01127577319587629</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F16">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3076</v>
+        <v>3069</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1290,13 +1290,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1316,13 +1316,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1342,13 +1342,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1368,13 +1368,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1394,13 +1394,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1420,13 +1420,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6063829787234043</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1446,13 +1446,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5864406779661017</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1472,13 +1472,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5857142857142857</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1524,13 +1524,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1550,13 +1550,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5732217573221757</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L27">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1576,13 +1576,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5056179775280899</v>
+        <v>0.54</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1602,13 +1602,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.3424657534246575</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
